--- a/biology/Botanique/Alyssum_alpestre/Alyssum_alpestre.xlsx
+++ b/biology/Botanique/Alyssum_alpestre/Alyssum_alpestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alysson alpestre, Passerage des Alpes
 L'Alysson alpestre ou Passerage des Alpes (Alyssum alpestre) est une espèce de plantes vivaces de la famille des Brassicacées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Alysson alpestre se distingue de l'Alysson des montagnes (Alyssum montanum L.) par son inflorescence rameuse en grappe étalée, des pétales ronds plus courts (2-3-mm ) et des feuilles en spatules de maximum 10 mm de long[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alysson alpestre se distingue de l'Alysson des montagnes (Alyssum montanum L.) par son inflorescence rameuse en grappe étalée, des pétales ronds plus courts (2-3-mm ) et des feuilles en spatules de maximum 10 mm de long.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit sur des pentes pierreuses et des éboulis aux étages subalpin et alpin, dans les Alpes occidentales, en particulier dans la région de Zermatt (Valais)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit sur des pentes pierreuses et des éboulis aux étages subalpin et alpin, dans les Alpes occidentales, en particulier dans la région de Zermatt (Valais).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Statut, menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alyssum alpestre est évalué « En danger » en Suisse[3]. Les menaces sont liées au changement climatique, à l'isolement de petites populations et au tourisme (ski, VTT, piétinement, création de sentier et ramassage)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alyssum alpestre est évalué « En danger » en Suisse. Les menaces sont liées au changement climatique, à l'isolement de petites populations et au tourisme (ski, VTT, piétinement, création de sentier et ramassage).
 </t>
         </is>
       </c>
